--- a/ideas.xlsx
+++ b/ideas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>grade</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>poc</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>teacher</t>
   </si>
   <si>
     <t>idea_01</t>
@@ -101,6 +116,9 @@
 and global warming</t>
   </si>
   <si>
+    <t>PoC developed</t>
+  </si>
+  <si>
     <t>idea_02</t>
   </si>
   <si>
@@ -196,7 +214,7 @@
     <t>Oorjit Mahajan</t>
   </si>
   <si>
-    <t>Shiv Nadar School, Noida</t>
+    <t>Shiv Nadar School</t>
   </si>
   <si>
     <t>Noida</t>
@@ -218,13 +236,16 @@
 Developed at a fraction of the cost (2500 ₹/35$) of the solutions available in the market, the extremely accessible, user-friendly and the disruptive product is an external handheld gyroscopically stable robotic handle with various attachments, including but not restricted to spoons, 4 forks, or toothbrushes. The IOT enabled state-of-the-art dual-axis gyroscopic stabilization system (Accelerometer Sensor Module - MPU6050) built with a reliable open-source electronics platform (Arduino Nano 33 BLE) with Li-Po batteries for power, and Servo Motors for dual axis correction, movement correction and attachment control, will ensure that the end of the handle remains stable even when the patient's hands shake. 
 The current prototype boasts an ergonomic design, featuring a sturdy 3D-printed structure, designed using sophisticated CAD/CAM Software (Fusion 360), manufactured using PLA
 Filament, and comfortable rubber grips to optimize user comfort during prolonged usage. Furthermore, our future plans include the active integration of Artificial Intelligence-enabled Tremor Profiling Algorithms. This integration is designed to provide doctors with valuable insights into the user's tremors in real time,</t>
+  </si>
+  <si>
+    <t>Field tested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -233,6 +254,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -258,8 +284,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -481,7 +509,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="19" width="18.88"/>
+    <col customWidth="1" min="1" max="13" width="18.88"/>
+    <col customWidth="1" min="14" max="14" width="69.63"/>
+    <col customWidth="1" min="15" max="20" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -521,197 +551,263 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3">
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
         <v>10.0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3">
-        <v>9.0</v>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3">
-        <v>9.0</v>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="3">
-        <v>9.0</v>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="3">
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="2">
         <v>12.0</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
